--- a/probability_phrase_frequencies.xlsx
+++ b/probability_phrase_frequencies.xlsx
@@ -7,24 +7,34 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2005-2005" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2006-2006" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2007-2007" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2008-2008" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="2009-2009" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="2010-2010" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="2011-2011" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="2012-2012" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="2013-2013" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="2014-2014" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="2015-2015" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="2016-2016" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="2017-2017" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="2018-2018" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="2019-2019" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="2020-2020" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="2021-2021" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="2022-2022" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="advice_2005-2005" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="advice_2006-2006" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="advice_2007-2007" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="advice_2008-2008" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="advice_2009-2009" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="advice_2010-2010" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="advice_2011-2011" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="advice_2012-2012" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="advice_2013-2013" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="advice_2014-2014" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="advice_2015-2015" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="advice_2016-2016" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="advice_2017-2017" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="advice_2018-2018" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="advice_2019-2019" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="advice_2020-2020" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="advice_2021-2021" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="advice_2022-2022" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="amitheasshole_2005-2005" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="amitheasshole_2006-2006" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="amitheasshole_2007-2007" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="amitheasshole_2008-2008" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="amitheasshole_2009-2009" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="amitheasshole_2010-2010" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="amitheasshole_2011-2011" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="amitheasshole_2012-2012" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="amitheasshole_2013-2013" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="amitheasshole_2014-2014" sheetId="28" state="visible" r:id="rId28"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7734,7 +7744,7317 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1 day</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2 day</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3 day</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4 day</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5 day</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6 day</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7 day</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8 day</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9 day</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10 day</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11 day</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12 day</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13 day</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14 day</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15 day</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16 day</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17 day</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18 day</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19 day</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20 day</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21 day</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22 day</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23 day</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24 day</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25 day</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26 day</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27 day</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28 day</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29 day</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30 day</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31 day</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32 day</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33 day</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34 day</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35 day</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36 day</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37 day</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38 day</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39 day</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40 day</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41 day</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42 day</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43 day</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44 day</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45 day</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46 day</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47 day</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48 day</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49 day</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50 day</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51 day</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52 day</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53 day</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54 day</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55 day</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56 day</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57 day</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58 day</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59 day</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60 day</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61 day</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62 day</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>63 day</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>64 day</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65 day</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66 day</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67 day</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68 day</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69 day</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>70 day</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1 day</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2 day</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3 day</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4 day</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5 day</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6 day</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7 day</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8 day</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9 day</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10 day</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11 day</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12 day</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13 day</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14 day</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15 day</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16 day</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17 day</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18 day</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19 day</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20 day</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21 day</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22 day</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23 day</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24 day</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25 day</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26 day</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27 day</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28 day</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29 day</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30 day</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31 day</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32 day</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33 day</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34 day</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35 day</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36 day</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37 day</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38 day</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39 day</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40 day</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41 day</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42 day</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43 day</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44 day</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45 day</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46 day</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47 day</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48 day</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49 day</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50 day</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51 day</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52 day</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53 day</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54 day</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55 day</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56 day</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57 day</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58 day</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59 day</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60 day</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61 day</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62 day</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>63 day</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>64 day</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65 day</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66 day</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67 day</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68 day</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69 day</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>70 day</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1 day</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2 day</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3 day</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4 day</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5 day</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6 day</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7 day</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8 day</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9 day</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10 day</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11 day</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12 day</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13 day</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14 day</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15 day</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16 day</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17 day</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18 day</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19 day</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20 day</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21 day</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22 day</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23 day</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24 day</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25 day</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26 day</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27 day</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28 day</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29 day</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30 day</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31 day</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32 day</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33 day</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34 day</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35 day</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36 day</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37 day</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38 day</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39 day</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40 day</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41 day</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42 day</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43 day</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44 day</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45 day</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46 day</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47 day</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48 day</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49 day</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50 day</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51 day</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52 day</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53 day</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54 day</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55 day</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56 day</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57 day</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58 day</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59 day</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60 day</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61 day</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62 day</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>63 day</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>64 day</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65 day</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66 day</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67 day</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68 day</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69 day</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>70 day</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1 day</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2 day</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3 day</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4 day</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5 day</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6 day</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7 day</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8 day</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9 day</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10 day</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11 day</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12 day</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13 day</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14 day</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15 day</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16 day</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17 day</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18 day</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19 day</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20 day</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21 day</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22 day</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23 day</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24 day</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25 day</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26 day</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27 day</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28 day</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29 day</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30 day</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31 day</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32 day</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33 day</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34 day</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35 day</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36 day</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37 day</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38 day</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39 day</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40 day</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41 day</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42 day</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43 day</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44 day</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45 day</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46 day</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47 day</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48 day</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49 day</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50 day</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51 day</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52 day</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53 day</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54 day</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55 day</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56 day</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57 day</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58 day</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59 day</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60 day</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61 day</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62 day</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>63 day</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>64 day</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65 day</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66 day</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67 day</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68 day</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69 day</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>70 day</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1 day</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2 day</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3 day</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4 day</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5 day</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6 day</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7 day</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8 day</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9 day</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10 day</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11 day</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12 day</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13 day</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14 day</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15 day</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16 day</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17 day</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18 day</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19 day</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20 day</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21 day</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22 day</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23 day</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24 day</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25 day</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26 day</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27 day</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28 day</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29 day</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30 day</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31 day</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32 day</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33 day</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34 day</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35 day</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36 day</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37 day</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38 day</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39 day</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40 day</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41 day</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42 day</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43 day</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44 day</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45 day</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46 day</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47 day</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48 day</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49 day</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50 day</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51 day</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52 day</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53 day</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54 day</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55 day</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56 day</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57 day</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58 day</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59 day</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60 day</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61 day</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62 day</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>63 day</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>64 day</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65 day</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66 day</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67 day</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68 day</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69 day</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>70 day</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1 day</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2 day</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3 day</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4 day</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5 day</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6 day</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7 day</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8 day</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9 day</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10 day</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11 day</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12 day</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13 day</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14 day</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15 day</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16 day</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17 day</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18 day</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19 day</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20 day</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21 day</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22 day</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23 day</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24 day</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25 day</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26 day</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27 day</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28 day</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29 day</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30 day</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31 day</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32 day</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33 day</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34 day</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35 day</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36 day</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37 day</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38 day</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39 day</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40 day</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41 day</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42 day</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43 day</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44 day</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45 day</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46 day</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47 day</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48 day</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49 day</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50 day</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51 day</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52 day</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53 day</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54 day</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55 day</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56 day</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57 day</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58 day</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59 day</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60 day</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61 day</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62 day</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>63 day</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>64 day</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65 day</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66 day</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67 day</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68 day</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69 day</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>70 day</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1 day</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2 day</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3 day</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4 day</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5 day</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6 day</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7 day</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8 day</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9 day</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10 day</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11 day</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12 day</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13 day</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14 day</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15 day</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16 day</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17 day</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18 day</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19 day</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20 day</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21 day</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22 day</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23 day</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24 day</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25 day</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26 day</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27 day</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28 day</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29 day</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30 day</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31 day</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32 day</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33 day</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34 day</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35 day</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36 day</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37 day</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38 day</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39 day</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40 day</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41 day</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42 day</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43 day</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44 day</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45 day</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46 day</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47 day</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48 day</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49 day</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50 day</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51 day</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52 day</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53 day</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54 day</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55 day</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56 day</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57 day</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58 day</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59 day</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60 day</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61 day</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62 day</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>63 day</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>64 day</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65 day</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66 day</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67 day</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68 day</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69 day</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>70 day</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1 day</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2 day</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3 day</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4 day</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5 day</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6 day</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7 day</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8 day</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9 day</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10 day</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11 day</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12 day</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13 day</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14 day</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15 day</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16 day</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17 day</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18 day</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19 day</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20 day</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21 day</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22 day</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23 day</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24 day</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25 day</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26 day</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27 day</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28 day</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29 day</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30 day</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31 day</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32 day</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33 day</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34 day</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35 day</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36 day</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37 day</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38 day</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39 day</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40 day</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41 day</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42 day</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43 day</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44 day</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45 day</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46 day</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47 day</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48 day</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49 day</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50 day</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51 day</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52 day</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53 day</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54 day</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55 day</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56 day</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57 day</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58 day</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59 day</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60 day</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61 day</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62 day</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>63 day</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>64 day</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65 day</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66 day</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67 day</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68 day</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69 day</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>70 day</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1 day</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2 day</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3 day</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4 day</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5 day</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6 day</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7 day</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8 day</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9 day</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10 day</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11 day</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12 day</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13 day</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14 day</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15 day</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16 day</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17 day</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18 day</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19 day</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20 day</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21 day</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22 day</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23 day</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24 day</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25 day</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26 day</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27 day</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28 day</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29 day</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30 day</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31 day</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32 day</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33 day</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34 day</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35 day</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36 day</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37 day</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38 day</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39 day</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40 day</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41 day</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42 day</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43 day</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44 day</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45 day</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46 day</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47 day</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48 day</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49 day</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50 day</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51 day</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52 day</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53 day</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54 day</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55 day</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56 day</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57 day</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58 day</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59 day</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60 day</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61 day</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62 day</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>63 day</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>64 day</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65 day</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66 day</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67 day</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68 day</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69 day</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>70 day</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1 day</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2 day</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3 day</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4 day</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5 day</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6 day</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7 day</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8 day</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9 day</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10 day</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11 day</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12 day</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13 day</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14 day</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15 day</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16 day</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17 day</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18 day</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19 day</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20 day</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21 day</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22 day</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23 day</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24 day</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25 day</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26 day</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27 day</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28 day</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29 day</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30 day</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31 day</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32 day</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33 day</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34 day</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35 day</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36 day</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37 day</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38 day</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39 day</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40 day</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41 day</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42 day</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43 day</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44 day</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45 day</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46 day</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47 day</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48 day</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49 day</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50 day</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51 day</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52 day</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53 day</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54 day</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55 day</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56 day</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57 day</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58 day</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59 day</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60 day</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61 day</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62 day</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>63 day</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>64 day</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65 day</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66 day</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67 day</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68 day</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69 day</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>70 day</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
